--- a/PRODUTOS/Saudaveis/Saudaveis - Sem gluten.xlsx
+++ b/PRODUTOS/Saudaveis/Saudaveis - Sem gluten.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Biscoito De Arroz Int Camil 150g Chia/linhaç</t>
+          <t>Biscoito Mini Crackers Sem Gluten 70g Manteiga</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a34e659b-4d34-4c61-906c-ced45b6b0331.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee0e0e6d-838b-45a8-b53c-d411c1ec62cf.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896256042801</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biscoito Arroz Gd S/gluten Kodilar 80g</t>
+          <t>Farinha Aveia Integ S/gluten Vitalin 200g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/77ece5b5-aeb2-4a14-8fdd-b68f1f118496.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aad3691f-0e11-4e00-9bff-c1203f1d55aa.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898568901050</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chip Mix S/glut Natural Life 70gr Ceb/sa</t>
+          <t>Wrap Sem Gluten Jasmine 240g Chia E Linahça</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84451129-8df7-4127-b0ec-ffdde96757f9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5106ece1-9a18-4e09-a0ba-b22453d6a54c.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896283007439</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mini Bisc Arroz S/gluten Kodilar 80g</t>
+          <t>Wrap Sem Gluten Jasmine 240g Espinafre</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff356b6e-1d21-43f6-936c-a176abf7dc90.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0244aa52-dfa2-4522-b642-22377ec550f8.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896283007422</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aveia Sem Glúten Em Flocos Finos Jasmine 250g</t>
+          <t>Snack Sem Gluten Belive 35g Pizza</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69fe33e1-2b7a-4a1d-9552-bf0c977aca86.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c79ebbdd-b443-4641-a486-6be0e487331e.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898380410792</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Biscoito De Arroz Int Camil Unidose 90g Trad</t>
+          <t>Biscoito Mini Crackers Sem Gluten 70g Cebola E Salsa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4eab633-0ee3-4793-8369-592b072fea94.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53d8099e-bdbb-4296-84cd-2f36622a9d6a.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896256042818</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Biscoito De Arroz Int Camil 150g C/ Pimenta</t>
+          <t>Bisc Rice Crackers S/gluten 84g Cebola Cebola</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2405ba53-c82e-4fce-a0a4-2760f46f3268.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35ea9123-bbc2-4069-af01-a8b14e214caf.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896256042870</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Snack Sem Gluten Belive 35g Cebola/salsa</t>
+          <t>Bisc Rice Crackers S/gluten 84g Queijo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99f8db72-18b1-4e1c-892f-0d93cef9d48d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44518065-92bb-4c6d-ae35-44ed1236c6b1.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896256042863</t>
         </is>
       </c>
     </row>
@@ -677,7 +722,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Biscoito Panda S/glute Natural Life 100g Cho</t>
+          <t>Biscoito De Milho Kodilar Gr 80g S/gluten</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -687,7 +732,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c398c6b0-ea61-4308-bf56-de6e2b056ae2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72ca4255-d777-4b3e-b52c-b01f21a43f84.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896256066388</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Farinha Aveia Integ S/gluten Vitalin 200g</t>
+          <t>Biscoito Rice Cracker S/gluten 84g Churrasco</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aad3691f-0e11-4e00-9bff-c1203f1d55aa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0584e5b-699e-473a-a765-e629e5cdd448.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896256042924</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chip Mix S/glut Natural Life 70gr Most</t>
+          <t>Biscoito Rice Cracker S/gluten 84g Lemon Pepper</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c457487-fe5d-452b-8bbd-26dcca2c940a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59be489f-d1a0-44e5-8fc2-4d137a406db2.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896256042917</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Snack Sem Gluten Belive 35g Churrasco</t>
+          <t>Chips Mix S/gluten Nat Life 70g Lemon Pepper</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb4434ae-2f63-4132-bf82-14c291ae77c5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbba8dd2-bf95-4e20-b5be-c7be024d1e0f.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896256065015</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Granola S/gluten Jasmine 250g Cranber</t>
+          <t>Bisc Rice Crackers S/gluten Kodilar 84g Paprica</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74537cd4-98b9-4d3b-ba3b-9c5b24ccc2c7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47503cee-9713-4ece-8091-cc840c865bb5.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896256042887</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chip Mix S/glut Natural Life 70gr Legu</t>
+          <t>Biscoito De Arroz Int Camil 150g C/ Pimenta</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d9b32d1-a5e9-450a-beda-3b95f10175b4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2405ba53-c82e-4fce-a0a4-2760f46f3268.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896006716464</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wrap Sem Gluten 240g Tradicional</t>
+          <t>Mini Bisc Arroz S/gluten Kodilar 80g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87f32346-7e14-402b-9d2f-b660f63c9760.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff356b6e-1d21-43f6-936c-a176abf7dc90.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896256065817</t>
         </is>
       </c>
     </row>
@@ -866,7 +946,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chip Mix S/glut Natural Life 70g Chilli</t>
+          <t>Biscoito Arroz Gd S/gluten Kodilar 80g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -876,7 +956,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/390c0fb2-98aa-4bd2-ab76-ad93b6baa198.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/77ece5b5-aeb2-4a14-8fdd-b68f1f118496.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896256065817</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wrap Sem Gluten Jasmine 240g Espinafre</t>
+          <t>Chip Mix S/glut Natural Life 70gr Legu</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0244aa52-dfa2-4522-b642-22377ec550f8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d9b32d1-a5e9-450a-beda-3b95f10175b4.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896256065480</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Biscoito Cookies S/gluten 180g Baun C/choco</t>
+          <t>Chip Mix S/glut Natural Life 70gr Ceb/sa</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99685b46-36b1-458b-bc68-a7e06727fc15.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84451129-8df7-4127-b0ec-ffdde96757f9.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896256065480</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Biscoito Cookies S/gluten 180g Coco</t>
+          <t>Chip Mix S/glut Natural Life 70gr Most</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80dce26d-2ddb-4d39-ab65-4ecec41cd40d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c457487-fe5d-452b-8bbd-26dcca2c940a.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896256065497</t>
         </is>
       </c>
     </row>
@@ -974,7 +1074,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chip Mix S/glut Natural Life 70gr Queijo</t>
+          <t>Chip Mix S/glut Natural Life 70g Chilli</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -984,7 +1084,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ddde04fd-822f-4369-8930-ab68b940437f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/390c0fb2-98aa-4bd2-ab76-ad93b6baa198.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896256065473</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Snack Sem Gluten Belive 35g Pizza</t>
+          <t>Chip Mix S/glut Natural Life 70gr Queijo</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c79ebbdd-b443-4641-a486-6be0e487331e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ddde04fd-822f-4369-8930-ab68b940437f.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896256066098</t>
         </is>
       </c>
     </row>
@@ -1041,6 +1151,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9335ffa0-0cb9-4900-805c-08225718d421.jpg</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896256065497</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Biscoito De Milho Kodilar Gr 80g S/gluten</t>
+          <t>Snack Sem Gluten Belive 35g Cebola/salsa</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72ca4255-d777-4b3e-b52c-b01f21a43f84.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99f8db72-18b1-4e1c-892f-0d93cef9d48d.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7898380410792</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Biscoito Sab. S/gluten 140g Coco B.choco</t>
+          <t>Snack Sem Gluten Belive 35g Churrasco</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2344c6e-6487-40fd-954d-c1ce676bf7cb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb4434ae-2f63-4132-bf82-14c291ae77c5.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7898380410822</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Biscoito Povilho Sem Gluten Natural Life 90g Tradicional</t>
+          <t>Biscoito De Arroz Int Camil 150g Chia/linhaç</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c12ebfe-9f8b-4e9c-baab-d9ec902d0656.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a34e659b-4d34-4c61-906c-ced45b6b0331.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896006716471</t>
         </is>
       </c>
     </row>
@@ -1136,368 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bisc Rice Crackers S/gluten 84g Cebola Cebola</t>
+          <t>Granola S/gluten Jasmine 250g Cranber</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35ea9123-bbc2-4069-af01-a8b14e214caf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Biscoito Povilho Sem Gluten Natural Life 90g Cebola E Salsa</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/576068ea-a4a9-4603-b320-b862fec9382c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Biscoito Ter. S/gluten 140g Can E Choco</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1e41baac-4be6-4ce5-bf20-03eec19ea8ce.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Wrap Sem Gluten Jasmine 240g Chia E Linahça</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5106ece1-9a18-4e09-a0ba-b22453d6a54c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Biscoito Sem Glúten Água E Sal Schar 115g</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afedca48-8d9a-4ae4-a98b-833a4b7cb3f4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Pao De Forma Sem Glutem Schar 200g Maçã Com Canela</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c23f8daa-93e9-4c65-a890-dd914d88ddc1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Biscoito Mini Crackers Sem Gluten 70g Manteiga</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee0e0e6d-838b-45a8-b53c-d411c1ec62cf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Farinha Multiuso Sem Gluten Schar 500gr</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/037e566f-94f1-4bf5-b843-0f6e26d24e1d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Biscoito Mini Crackers Sem Gluten 70g Cebola E Salsa</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53d8099e-bdbb-4296-84cd-2f36622a9d6a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Bisc Rice Crackers S/gluten 84g Queijo</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44518065-92bb-4c6d-ae35-44ed1236c6b1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Biscoito Rice Cracker S/gluten 84g Lemon Pepper</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59be489f-d1a0-44e5-8fc2-4d137a406db2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Chips Mix S/gluten Nat Life 70g Lemon Pepper</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbba8dd2-bf95-4e20-b5be-c7be024d1e0f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Biscoito Rice Cracker S/gluten 84g Churrasco</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0584e5b-699e-473a-a765-e629e5cdd448.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Sem gluten</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Bisc Rice Crackers S/gluten Kodilar 84g Paprica</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47503cee-9713-4ece-8091-cc840c865bb5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74537cd4-98b9-4d3b-ba3b-9c5b24ccc2c7.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896283006159</t>
         </is>
       </c>
     </row>
